--- a/SDP/Filexel/FakerKTR.xlsx
+++ b/SDP/Filexel/FakerKTR.xlsx
@@ -424,43 +424,43 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Jasa</t>
+          <t>Agribisnis</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Lanjutan</t>
+          <t>Mahir</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Nam quisquam.</t>
+          <t>Eligendi.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Gang Suryakencana No. 6
-Parepare, NT 81389</t>
+          <t>Jl. Gardujati No. 49
+Sawahlunto, SU 59449</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>05/05/2023</t>
+          <t>09/05/2023</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>saranaOption-1</t>
+          <t>saranaOption-3</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>prasaranaOption-1</t>
+          <t>prasaranaOption-0</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>mitra-0</t>
+          <t>mitra-2</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -475,48 +475,48 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>penanggungJawabOption-0</t>
+          <t>penanggungJawabOption-2</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Fugiat accusantium.</t>
+          <t>Omnis ullam itaque.</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Nisi repellat nobis.</t>
+          <t>Fugiat maxime ipsa.</t>
         </is>
       </c>
       <c r="N1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Manufaktur</t>
+          <t>Jasa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lanjutan</t>
+          <t>Mahir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aperiam qui.</t>
+          <t>Nostrum delectus.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gang Siliwangi No. 99
-Tomohon, Riau 88749</t>
+          <t>Gang Sentot Alibasa No. 4
+Langsa, Riau 15885</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>05/05/2023</t>
+          <t>09/05/2023</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -526,12 +526,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>prasaranaOption-0</t>
+          <t>prasaranaOption-2</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>mitra-4</t>
+          <t>mitra-2</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>instrukturOption-0</t>
+          <t>instrukturOption-1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -551,16 +551,16 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Accusantium.</t>
+          <t>Quod aperiam iure.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Hic aliquid eveniet.</t>
+          <t>Quasi laudantium.</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -576,58 +576,58 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sit quod pariatur.</t>
+          <t>Rerum itaque.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jalan Siliwangi No. 1
-Tanjungbalai, YO 03360</t>
+          <t>Gang Medokan Ayu No. 0
+Bukittinggi, MU 25941</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>05/05/2023</t>
+          <t>09/05/2023</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>saranaOption-3</t>
+          <t>saranaOption-0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>prasaranaOption-2</t>
+          <t>prasaranaOption-4</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>mitra-2</t>
+          <t>mitra-1</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>#instansiLain-0</t>
+          <t>#mitra-0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>instrukturOption-1</t>
+          <t>instrukturOption-0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>penanggungJawabOption-0</t>
+          <t>penanggungJawabOption-2</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Quos eligendi nulla.</t>
+          <t>Repudiandae quidem.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Dolore fugiat.</t>
+          <t>Porro vero velit.</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -637,43 +637,43 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Agribisnis</t>
+          <t>Manufaktur</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Mahir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Accusantium.</t>
+          <t>Optio labore.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jalan Ronggowarsito No. 32
-Samarinda, Sumatera Barat 92251</t>
+          <t>Jalan Kendalsari No. 300
+Sungai Penuh, JI 94329</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>05/05/2023</t>
+          <t>09/05/2023</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>saranaOption-2</t>
+          <t>saranaOption-3</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>prasaranaOption-0</t>
+          <t>prasaranaOption-3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>mitra-3</t>
+          <t>mitra-4</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -683,26 +683,26 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>instrukturOption-0</t>
+          <t>instrukturOption-1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>penanggungJawabOption-1</t>
+          <t>penanggungJawabOption-2</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Recusandae nemo.</t>
+          <t>Dolores excepturi.</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Quas ad velit.</t>
+          <t>Laudantium labore.</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -713,23 +713,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lanjutan</t>
+          <t>Mahir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Eaque culpa id.</t>
+          <t>Perspiciatis.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jalan Otto Iskandardinata No. 98
-Pekanbaru, Kalimantan Timur 48905</t>
+          <t>Jalan Indragiri No. 1
+Pematangsiantar, Sulawesi Tenggara 49300</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>05/05/2023</t>
+          <t>09/05/2023</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>prasaranaOption-1</t>
+          <t>prasaranaOption-0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>instrukturOption-1</t>
+          <t>instrukturOption-0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -764,16 +764,16 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Asperiores debitis.</t>
+          <t>Porro repellat.</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Dignissimos fugiat.</t>
+          <t>Assumenda unde quas.</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/SDP/Filexel/FakerKTR.xlsx
+++ b/SDP/Filexel/FakerKTR.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Agribisnis</t>
+          <t>Jasa</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -434,28 +434,28 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Eligendi.</t>
+          <t>Aliquid.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Jl. Gardujati No. 49
-Sawahlunto, SU 59449</t>
+          <t>Gang Kendalsari No. 3
+Yogyakarta, PA 91097</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>09/05/2023</t>
+          <t>10/05/2023</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>saranaOption-3</t>
+          <t>saranaOption-0</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>prasaranaOption-0</t>
+          <t>prasaranaOption-2</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -465,7 +465,7 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>#mitra-0</t>
+          <t>#instansiLain-0</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -475,58 +475,58 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>penanggungJawabOption-2</t>
+          <t>penanggungJawabOption-0</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Omnis ullam itaque.</t>
+          <t>Suscipit magnam.</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Fugiat maxime ipsa.</t>
+          <t>Tempora ut enim a.</t>
         </is>
       </c>
       <c r="N1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jasa</t>
+          <t>Agribisnis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mahir</t>
+          <t>Pemula</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nostrum delectus.</t>
+          <t>Beatae molestiae.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gang Sentot Alibasa No. 4
-Langsa, Riau 15885</t>
+          <t>Gang Pasirkoja No. 0
+Tidore Kepulauan, SN 25732</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>09/05/2023</t>
+          <t>10/05/2023</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>saranaOption-3</t>
+          <t>saranaOption-0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>prasaranaOption-2</t>
+          <t>prasaranaOption-3</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -541,68 +541,68 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>instrukturOption-1</t>
+          <t>instrukturOption-0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>penanggungJawabOption-1</t>
+          <t>penanggungJawabOption-0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Quod aperiam iure.</t>
+          <t>Officia fuga.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Quasi laudantium.</t>
+          <t>Maxime vel quos.</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Agribisnis</t>
+          <t>Jasa</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lanjutan</t>
+          <t>Pemula</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rerum itaque.</t>
+          <t>Quas ullam dolore.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Gang Medokan Ayu No. 0
-Bukittinggi, MU 25941</t>
+          <t>Jalan Dipenogoro No. 955
+Palangkaraya, Sulawesi Utara 46672</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09/05/2023</t>
+          <t>10/05/2023</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>saranaOption-0</t>
+          <t>saranaOption-3</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>prasaranaOption-4</t>
+          <t>prasaranaOption-2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>mitra-1</t>
+          <t>mitra-0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -612,68 +612,68 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>instrukturOption-0</t>
+          <t>instrukturOption-1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>penanggungJawabOption-2</t>
+          <t>penanggungJawabOption-1</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Repudiandae quidem.</t>
+          <t>Qui odit mollitia.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Porro vero velit.</t>
+          <t>Laboriosam modi.</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Manufaktur</t>
+          <t>Agribisnis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mahir</t>
+          <t>Lanjutan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Optio labore.</t>
+          <t>Eligendi eveniet.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jalan Kendalsari No. 300
-Sungai Penuh, JI 94329</t>
+          <t>Jalan Dr. Djunjunan No. 1
+Binjai, Papua Barat 31224</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>09/05/2023</t>
+          <t>10/05/2023</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>saranaOption-3</t>
+          <t>saranaOption-2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>prasaranaOption-3</t>
+          <t>prasaranaOption-4</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>mitra-4</t>
+          <t>mitra-3</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>instrukturOption-1</t>
+          <t>instrukturOption-0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -693,22 +693,22 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Dolores excepturi.</t>
+          <t>Sit ducimus amet.</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Laudantium labore.</t>
+          <t>Cumque libero.</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Manufaktur</t>
+          <t>Jasa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -718,33 +718,33 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Perspiciatis.</t>
+          <t>Ex voluptatibus.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jalan Indragiri No. 1
-Pematangsiantar, Sulawesi Tenggara 49300</t>
+          <t>Gg. Cikapayang No. 931
+Pekalongan, SU 94586</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09/05/2023</t>
+          <t>10/05/2023</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>saranaOption-3</t>
+          <t>saranaOption-2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>prasaranaOption-0</t>
+          <t>prasaranaOption-2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>mitra-0</t>
+          <t>mitra-2</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -754,26 +754,26 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>instrukturOption-0</t>
+          <t>instrukturOption-1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>penanggungJawabOption-1</t>
+          <t>penanggungJawabOption-0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Porro repellat.</t>
+          <t>At dolorum soluta.</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Assumenda unde quas.</t>
+          <t>Sed voluptatibus.</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/SDP/Filexel/FakerKTR.xlsx
+++ b/SDP/Filexel/FakerKTR.xlsx
@@ -424,38 +424,38 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Jasa</t>
+          <t>Agribisnis</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Mahir</t>
+          <t>Lanjutan</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Aliquid.</t>
+          <t>Ipsum modi rem.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Gang Kendalsari No. 3
-Yogyakarta, PA 91097</t>
+          <t>Gg. Stasiun Wonokromo No. 5
+Bandung, YO 57033</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>10/05/2023</t>
+          <t>11/05/2023</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>saranaOption-0</t>
+          <t>saranaOption-1</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>prasaranaOption-2</t>
+          <t>prasaranaOption-0</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -465,78 +465,78 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>#instansiLain-0</t>
+          <t>#petugas-0</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>instrukturOption-1</t>
+          <t>instrukturOption-0</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>penanggungJawabOption-0</t>
+          <t>penanggungJawabOption-2</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Suscipit magnam.</t>
+          <t>Rem consequatur.</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Tempora ut enim a.</t>
+          <t>Sint tenetur facere.</t>
         </is>
       </c>
       <c r="N1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Agribisnis</t>
+          <t>Manufaktur</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Lanjutan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Beatae molestiae.</t>
+          <t>Dolorem aspernatur.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gang Pasirkoja No. 0
-Tidore Kepulauan, SN 25732</t>
+          <t>Jl. Ir. H. Djuanda No. 72
+Kupang, JB 03686</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10/05/2023</t>
+          <t>11/05/2023</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>saranaOption-0</t>
+          <t>saranaOption-2</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>prasaranaOption-3</t>
+          <t>prasaranaOption-2</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>mitra-2</t>
+          <t>mitra-0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>#mitra-0</t>
+          <t>#instansiLain-0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -551,12 +551,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Officia fuga.</t>
+          <t>Alias sapiente quos.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Maxime vel quos.</t>
+          <t>Error consectetur.</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -566,7 +566,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jasa</t>
+          <t>Agribisnis</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -576,18 +576,18 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Quas ullam dolore.</t>
+          <t>Pariatur earum.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jalan Dipenogoro No. 955
-Palangkaraya, Sulawesi Utara 46672</t>
+          <t>Jalan Dipenogoro No. 1
+Malang, Jawa Timur 53885</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10/05/2023</t>
+          <t>11/05/2023</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>prasaranaOption-2</t>
+          <t>prasaranaOption-4</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -612,68 +612,68 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>instrukturOption-1</t>
+          <t>instrukturOption-0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>penanggungJawabOption-1</t>
+          <t>penanggungJawabOption-0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Qui odit mollitia.</t>
+          <t>Quibusdam.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Laboriosam modi.</t>
+          <t>Quidem quo.</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Agribisnis</t>
+          <t>Jasa</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lanjutan</t>
+          <t>Mahir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Eligendi eveniet.</t>
+          <t>Et corrupti magni.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jalan Dr. Djunjunan No. 1
-Binjai, Papua Barat 31224</t>
+          <t>Gang Lembong No. 56
+Yogyakarta, Bengkulu 71926</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10/05/2023</t>
+          <t>11/05/2023</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>saranaOption-2</t>
+          <t>saranaOption-3</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>prasaranaOption-4</t>
+          <t>prasaranaOption-1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>mitra-3</t>
+          <t>mitra-2</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -683,32 +683,32 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>instrukturOption-0</t>
+          <t>instrukturOption-1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>penanggungJawabOption-2</t>
+          <t>penanggungJawabOption-1</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Sit ducimus amet.</t>
+          <t>Dolorum.</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Cumque libero.</t>
+          <t>Consequuntur libero.</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jasa</t>
+          <t>Agribisnis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -718,33 +718,33 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ex voluptatibus.</t>
+          <t>Error sapiente.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gg. Cikapayang No. 931
-Pekalongan, SU 94586</t>
+          <t>Gang Rumah Sakit No. 797
+Denpasar, Kalimantan Utara 54974</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10/05/2023</t>
+          <t>11/05/2023</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>saranaOption-2</t>
+          <t>saranaOption-3</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>prasaranaOption-2</t>
+          <t>prasaranaOption-1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>mitra-2</t>
+          <t>mitra-4</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -754,26 +754,26 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>instrukturOption-1</t>
+          <t>instrukturOption-0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>penanggungJawabOption-0</t>
+          <t>penanggungJawabOption-2</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>At dolorum soluta.</t>
+          <t>Rerum cumque neque.</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Sed voluptatibus.</t>
+          <t>Saepe maxime nemo.</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/SDP/Filexel/FakerKTR.xlsx
+++ b/SDP/Filexel/FakerKTR.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Agribisnis</t>
+          <t>Manufaktur</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -434,18 +434,18 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Ipsum modi rem.</t>
+          <t>Non enim quos atque.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Gg. Stasiun Wonokromo No. 5
-Bandung, YO 57033</t>
+          <t>Gang Siliwangi No. 767
+Kota Administrasi Jakarta Utara, AC 82567</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>11/05/2023</t>
+          <t>12/05/2023</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -455,7 +455,7 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>prasaranaOption-0</t>
+          <t>prasaranaOption-4</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -480,43 +480,43 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Rem consequatur.</t>
+          <t>Ex perspiciatis ex.</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Sint tenetur facere.</t>
+          <t>Eum exercitationem.</t>
         </is>
       </c>
       <c r="N1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Manufaktur</t>
+          <t>Agribisnis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lanjutan</t>
+          <t>Mahir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dolorem aspernatur.</t>
+          <t>Saepe reprehenderit.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jl. Ir. H. Djuanda No. 72
-Kupang, JB 03686</t>
+          <t>Gg. Pacuan Kuda No. 6
+Kendari, Kepulauan Bangka Belitung 12595</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11/05/2023</t>
+          <t>12/05/2023</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -526,12 +526,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>prasaranaOption-2</t>
+          <t>prasaranaOption-1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>mitra-0</t>
+          <t>mitra-4</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -546,21 +546,21 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>penanggungJawabOption-0</t>
+          <t>penanggungJawabOption-1</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Alias sapiente quos.</t>
+          <t>Mollitia.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Error consectetur.</t>
+          <t>Doloremque ut autem.</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -571,33 +571,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Mahir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pariatur earum.</t>
+          <t>Omnis voluptatum.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jalan Dipenogoro No. 1
-Malang, Jawa Timur 53885</t>
+          <t>Gang Dr. Djunjunan No. 06
+Prabumulih, Sulawesi Tengah 99057</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11/05/2023</t>
+          <t>12/05/2023</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>saranaOption-3</t>
+          <t>saranaOption-1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>prasaranaOption-4</t>
+          <t>prasaranaOption-0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -617,27 +617,27 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>penanggungJawabOption-0</t>
+          <t>penanggungJawabOption-2</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Quibusdam.</t>
+          <t>Incidunt natus.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Quidem quo.</t>
+          <t>Illum perferendis.</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jasa</t>
+          <t>Agribisnis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -647,18 +647,18 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Et corrupti magni.</t>
+          <t>Similique nostrum.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Gang Lembong No. 56
-Yogyakarta, Bengkulu 71926</t>
+          <t>Gang Rajawali Timur No. 4
+Subulussalam, JI 73241</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11/05/2023</t>
+          <t>12/05/2023</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>prasaranaOption-1</t>
+          <t>prasaranaOption-0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>mitra-2</t>
+          <t>mitra-0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -683,26 +683,26 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>instrukturOption-1</t>
+          <t>instrukturOption-0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>penanggungJawabOption-1</t>
+          <t>penanggungJawabOption-2</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Dolorum.</t>
+          <t>Tempora aperiam.</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Consequuntur libero.</t>
+          <t>Pariatur expedita.</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -713,33 +713,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mahir</t>
+          <t>Lanjutan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Error sapiente.</t>
+          <t>Dignissimos id.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gang Rumah Sakit No. 797
-Denpasar, Kalimantan Utara 54974</t>
+          <t>Jl. Sukabumi No. 7
+Medan, Sumatera Selatan 23831</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11/05/2023</t>
+          <t>12/05/2023</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>saranaOption-3</t>
+          <t>saranaOption-2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>prasaranaOption-1</t>
+          <t>prasaranaOption-0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -749,31 +749,31 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>#mitra-0</t>
+          <t>#instansiLain-0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>instrukturOption-0</t>
+          <t>instrukturOption-1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>penanggungJawabOption-2</t>
+          <t>penanggungJawabOption-0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Rerum cumque neque.</t>
+          <t>Repellendus.</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Saepe maxime nemo.</t>
+          <t>Repudiandae.</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/SDP/Filexel/FakerKTR.xlsx
+++ b/SDP/Filexel/FakerKTR.xlsx
@@ -429,18 +429,18 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Lanjutan</t>
+          <t>Mahir</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Non enim quos atque.</t>
+          <t>Aspernatur nemo.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Gang Siliwangi No. 767
-Kota Administrasi Jakarta Utara, AC 82567</t>
+          <t>Jl. PHH. Mustofa No. 54
+Bitung, YO 13451</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -450,7 +450,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>saranaOption-1</t>
+          <t>saranaOption-2</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -460,32 +460,32 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>mitra-2</t>
+          <t>mitra-4</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>#petugas-0</t>
+          <t>#instansiLain-0</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>instrukturOption-0</t>
+          <t>instrukturOption-1</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>penanggungJawabOption-2</t>
+          <t>penanggungJawabOption-1</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Ex perspiciatis ex.</t>
+          <t>Odio harum repellat.</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Eum exercitationem.</t>
+          <t>Saepe velit et.</t>
         </is>
       </c>
       <c r="N1" t="n">
@@ -495,23 +495,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Agribisnis</t>
+          <t>Jasa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mahir</t>
+          <t>Pemula</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Saepe reprehenderit.</t>
+          <t>Ea deserunt rem.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gg. Pacuan Kuda No. 6
-Kendari, Kepulauan Bangka Belitung 12595</t>
+          <t>Gg. Kendalsari No. 30
+Banjarmasin, SG 84135</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -521,42 +521,42 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>saranaOption-2</t>
+          <t>saranaOption-0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>prasaranaOption-1</t>
+          <t>prasaranaOption-2</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>mitra-4</t>
+          <t>mitra-3</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>#instansiLain-0</t>
+          <t>#petugas-0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>instrukturOption-0</t>
+          <t>instrukturOption-1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>penanggungJawabOption-1</t>
+          <t>penanggungJawabOption-2</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Mollitia.</t>
+          <t>Nulla dolores.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Doloremque ut autem.</t>
+          <t>Molestiae dolores.</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -566,7 +566,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Agribisnis</t>
+          <t>Manufaktur</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -576,13 +576,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Omnis voluptatum.</t>
+          <t>Voluptate a vero.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Gang Dr. Djunjunan No. 06
-Prabumulih, Sulawesi Tengah 99057</t>
+          <t>Gang Monginsidi No. 0
+Pangkalpinang, Sulawesi Selatan 93690</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -592,22 +592,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>saranaOption-1</t>
+          <t>saranaOption-0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>prasaranaOption-0</t>
+          <t>prasaranaOption-2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>mitra-0</t>
+          <t>mitra-4</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>#mitra-0</t>
+          <t>#petugas-0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -617,17 +617,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>penanggungJawabOption-2</t>
+          <t>penanggungJawabOption-1</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Incidunt natus.</t>
+          <t>Suscipit magnam.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Illum perferendis.</t>
+          <t>Ipsam modi natus.</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -637,23 +637,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Agribisnis</t>
+          <t>Jasa</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mahir</t>
+          <t>Lanjutan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Similique nostrum.</t>
+          <t>Rerum aperiam aut.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Gang Rajawali Timur No. 4
-Subulussalam, JI 73241</t>
+          <t>Jalan Jend. Sudirman No. 892
+Tidore Kepulauan, Maluku 47937</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -663,12 +663,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>saranaOption-3</t>
+          <t>saranaOption-2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>prasaranaOption-0</t>
+          <t>prasaranaOption-1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>penanggungJawabOption-2</t>
+          <t>penanggungJawabOption-1</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Tempora aperiam.</t>
+          <t>Pariatur suscipit.</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Pariatur expedita.</t>
+          <t>Consequuntur animi.</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -718,13 +718,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Dignissimos id.</t>
+          <t>Molestias veritatis.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jl. Sukabumi No. 7
-Medan, Sumatera Selatan 23831</t>
+          <t>Jalan Rajiman No. 38
+Semarang, Papua Barat 30117</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -734,42 +734,42 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>saranaOption-2</t>
+          <t>saranaOption-0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>prasaranaOption-0</t>
+          <t>prasaranaOption-4</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>mitra-4</t>
+          <t>mitra-1</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>#instansiLain-0</t>
+          <t>#petugas-0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>instrukturOption-1</t>
+          <t>instrukturOption-0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>penanggungJawabOption-0</t>
+          <t>penanggungJawabOption-1</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Repellendus.</t>
+          <t>Ipsum odio sit.</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Repudiandae.</t>
+          <t>Dignissimos officia.</t>
         </is>
       </c>
       <c r="N5" t="n">

--- a/SDP/Filexel/FakerKTR.xlsx
+++ b/SDP/Filexel/FakerKTR.xlsx
@@ -429,43 +429,43 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Mahir</t>
+          <t>Lanjutan</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Aspernatur nemo.</t>
+          <t>Nemo porro.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Jl. PHH. Mustofa No. 54
-Bitung, YO 13451</t>
+          <t>Gg. Ciwastra No. 37
+Salatiga, SS 19197</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>12/05/2023</t>
+          <t>15/05/2023</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>saranaOption-2</t>
+          <t>saranaOption-0</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>prasaranaOption-4</t>
+          <t>prasaranaOption-2</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>mitra-4</t>
+          <t>mitra-0</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>#instansiLain-0</t>
+          <t>#petugas-0</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -475,17 +475,17 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>penanggungJawabOption-1</t>
+          <t>penanggungJawabOption-0</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Odio harum repellat.</t>
+          <t>Nostrum atque saepe.</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Saepe velit et.</t>
+          <t>Labore hic a.</t>
         </is>
       </c>
       <c r="N1" t="n">
@@ -495,38 +495,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jasa</t>
+          <t>Agribisnis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Mahir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ea deserunt rem.</t>
+          <t>Eligendi nam libero.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gg. Kendalsari No. 30
-Banjarmasin, SG 84135</t>
+          <t>Jl. BKR No. 304
+Banjar, JK 18342</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12/05/2023</t>
+          <t>15/05/2023</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>saranaOption-0</t>
+          <t>saranaOption-1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>prasaranaOption-2</t>
+          <t>prasaranaOption-1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>#petugas-0</t>
+          <t>#instansiLain-0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -551,12 +551,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Nulla dolores.</t>
+          <t>Beatae tempore.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Molestiae dolores.</t>
+          <t>Quasi culpa odit.</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -566,7 +566,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Manufaktur</t>
+          <t>Jasa</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -576,33 +576,33 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Voluptate a vero.</t>
+          <t>Dolorum.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Gang Monginsidi No. 0
-Pangkalpinang, Sulawesi Selatan 93690</t>
+          <t>Gang Rajawali Barat No. 3
+Jambi, NB 04667</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12/05/2023</t>
+          <t>15/05/2023</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>saranaOption-0</t>
+          <t>saranaOption-1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>prasaranaOption-2</t>
+          <t>prasaranaOption-4</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>mitra-4</t>
+          <t>mitra-0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -622,12 +622,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Suscipit magnam.</t>
+          <t>Maxime unde.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Ipsam modi natus.</t>
+          <t>Inventore quod ipsa.</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -637,38 +637,38 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jasa</t>
+          <t>Agribisnis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lanjutan</t>
+          <t>Mahir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rerum aperiam aut.</t>
+          <t>Iure nostrum nemo.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jalan Jend. Sudirman No. 892
-Tidore Kepulauan, Maluku 47937</t>
+          <t>Gang Pelajar Pejuang No. 954
+Tomohon, JT 98368</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12/05/2023</t>
+          <t>15/05/2023</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>saranaOption-2</t>
+          <t>saranaOption-3</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>prasaranaOption-1</t>
+          <t>prasaranaOption-4</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>penanggungJawabOption-1</t>
+          <t>penanggungJawabOption-2</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Pariatur suscipit.</t>
+          <t>Sint omnis esse.</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Consequuntur animi.</t>
+          <t>Et unde repellat.</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -713,23 +713,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lanjutan</t>
+          <t>Pemula</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Molestias veritatis.</t>
+          <t>Debitis illum.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jalan Rajiman No. 38
-Semarang, Papua Barat 30117</t>
+          <t>Gang Peta No. 4
+Singkawang, Jambi 04513</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12/05/2023</t>
+          <t>15/05/2023</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -739,12 +739,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>prasaranaOption-4</t>
+          <t>prasaranaOption-2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>mitra-1</t>
+          <t>mitra-4</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>instrukturOption-0</t>
+          <t>instrukturOption-1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -764,12 +764,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Ipsum odio sit.</t>
+          <t>Tempore esse rem.</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Dignissimos officia.</t>
+          <t>Totam magnam modi.</t>
         </is>
       </c>
       <c r="N5" t="n">

--- a/SDP/Filexel/FakerKTR.xlsx
+++ b/SDP/Filexel/FakerKTR.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,18 +434,18 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Nemo porro.</t>
+          <t>Ab ipsa commodi ea.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Gg. Ciwastra No. 37
-Salatiga, SS 19197</t>
+          <t>Gang Surapati No. 163
+Kota Administrasi Jakarta Timur, SU 22969</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>15/05/2023</t>
+          <t>16/05/2023</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -455,17 +455,17 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>prasaranaOption-2</t>
+          <t>prasaranaOption-3</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>mitra-0</t>
+          <t>mitra-1</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>#petugas-0</t>
+          <t>#mitra-0</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -480,300 +480,91 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Nostrum atque saepe.</t>
+          <t>Perferendis qui.</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Labore hic a.</t>
+          <t>Sunt saepe quod.</t>
         </is>
       </c>
       <c r="N1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Agribisnis</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Mahir</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Eligendi nam libero.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Jl. BKR No. 304
-Banjar, JK 18342</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>15/05/2023</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>saranaOption-1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>prasaranaOption-1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>mitra-3</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>#instansiLain-0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>instrukturOption-1</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>penanggungJawabOption-2</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Beatae tempore.</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Quasi culpa odit.</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Jasa</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Mahir</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Dolorum.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Gang Rajawali Barat No. 3
-Jambi, NB 04667</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>15/05/2023</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>saranaOption-1</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>prasaranaOption-4</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>mitra-0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>#petugas-0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>instrukturOption-0</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>penanggungJawabOption-1</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Maxime unde.</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Inventore quod ipsa.</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Agribisnis</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mahir</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Iure nostrum nemo.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Gang Pelajar Pejuang No. 954
-Tomohon, JT 98368</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>15/05/2023</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>saranaOption-3</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>prasaranaOption-4</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>mitra-0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>#instansiLain-0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>instrukturOption-0</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>penanggungJawabOption-2</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Sint omnis esse.</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Et unde repellat.</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Agribisnis</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pemula</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Debitis illum.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Gang Peta No. 4
-Singkawang, Jambi 04513</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>15/05/2023</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>saranaOption-0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>prasaranaOption-2</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>mitra-4</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>#petugas-0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>instrukturOption-1</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>penanggungJawabOption-1</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Tempore esse rem.</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Totam magnam modi.</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>2</v>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>T 3572 RFC</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>C 195 BC</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Q 293 PI</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>N 0836 PPX</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>QD 615 KDM</t>
+        </is>
+      </c>
+      <c r="T1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U1" t="n">
+        <v>8</v>
+      </c>
+      <c r="V1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W1" t="n">
+        <v>8</v>
+      </c>
+      <c r="X1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Kurang</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>Deserunt tenetur odit eaque. Facere exercitationem saepe officia ducimus in voluptate. Quibusdam facere molestias ratione.</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/SDP/Filexel/FakerKTR.xlsx
+++ b/SDP/Filexel/FakerKTR.xlsx
@@ -424,28 +424,28 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Manufaktur</t>
+          <t>Jasa</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Lanjutan</t>
+          <t>Mahir</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Ab ipsa commodi ea.</t>
+          <t>Quisquam nisi in.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Gang Surapati No. 163
-Kota Administrasi Jakarta Timur, SU 22969</t>
+          <t>Gg. Abdul Muis No. 655
+Tegal, LA 22796</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>16/05/2023</t>
+          <t>17/05/2023</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -455,17 +455,17 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>prasaranaOption-3</t>
+          <t>prasaranaOption-2</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>mitra-1</t>
+          <t>mitra-0</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>#mitra-0</t>
+          <t>#petugas-0</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -475,17 +475,17 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>penanggungJawabOption-0</t>
+          <t>penanggungJawabOption-2</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Perferendis qui.</t>
+          <t>Excepturi.</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Sunt saepe quod.</t>
+          <t>Esse veritatis.</t>
         </is>
       </c>
       <c r="N1" t="n">
@@ -493,67 +493,67 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>T 3572 RFC</t>
+          <t>IP 558 MBQ</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>C 195 BC</t>
+          <t>XB 6284 ZBW</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Q 293 PI</t>
+          <t>ET 500 KC</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>N 0836 PPX</t>
+          <t>SB 963 ZX</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>QD 615 KDM</t>
+          <t>U 2926 ZGD</t>
         </is>
       </c>
       <c r="T1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V1" t="n">
+        <v>9</v>
+      </c>
+      <c r="W1" t="n">
+        <v>9</v>
+      </c>
+      <c r="X1" t="n">
         <v>5</v>
       </c>
-      <c r="U1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W1" t="n">
-        <v>8</v>
-      </c>
-      <c r="X1" t="n">
-        <v>6</v>
-      </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Sangat Baik</t>
+          <t>Baik</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>Sangat Baik</t>
+          <t>Baik</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
           <t>Kurang</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Sangat Baik</t>
-        </is>
-      </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Kurang</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>Deserunt tenetur odit eaque. Facere exercitationem saepe officia ducimus in voluptate. Quibusdam facere molestias ratione.</t>
+          <t>Voluptatum quas eaque. Ex ipsam eaque laudantium ex. Id accusamus excepturi consectetur molestiae quia illum recusandae.</t>
         </is>
       </c>
     </row>

--- a/SDP/Filexel/FakerKTR.xlsx
+++ b/SDP/Filexel/FakerKTR.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Jasa</t>
+          <t>Agribisnis</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -434,58 +434,58 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Quisquam nisi in.</t>
+          <t>Voluptas.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Gg. Abdul Muis No. 655
-Tegal, LA 22796</t>
+          <t>Gg. Moch. Toha No. 5
+Jayapura, KR 58605</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>17/05/2023</t>
+          <t>06/06/2023</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>saranaOption-0</t>
+          <t>saranaOption-3</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>prasaranaOption-2</t>
+          <t>prasaranaOption-1</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>mitra-0</t>
+          <t>mitra-4</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>#petugas-0</t>
+          <t>#instansiLain-0</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>instrukturOption-1</t>
+          <t>instrukturOption-0</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>penanggungJawabOption-2</t>
+          <t>penanggungJawabOption-1</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Excepturi.</t>
+          <t>A sunt corporis a.</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Esse veritatis.</t>
+          <t>Unde cumque minus.</t>
         </is>
       </c>
       <c r="N1" t="n">
@@ -493,67 +493,67 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>IP 558 MBQ</t>
+          <t>DE 107 FUL</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>XB 6284 ZBW</t>
+          <t>Z 5403 FMU</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>ET 500 KC</t>
+          <t>Q 896 KRO</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>SB 963 ZX</t>
+          <t>LM 5234 FY</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>U 2926 ZGD</t>
+          <t>P 8322 SRG</t>
         </is>
       </c>
       <c r="T1" t="n">
         <v>6</v>
       </c>
       <c r="U1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W1" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="X1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Kurang</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Sangat Baik</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>Baik</t>
+          <t>Sangat Baik</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>Kurang</t>
+          <t>Sangat Baik</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>Kurang</t>
+          <t>Cukup</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
@@ -563,7 +563,8 @@
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>Voluptatum quas eaque. Ex ipsam eaque laudantium ex. Id accusamus excepturi consectetur molestiae quia illum recusandae.</t>
+          <t>Nesciunt exercitationem ipsa ab at. Veniam veniam voluptatibus sunt.
+Ipsa occaecati voluptatibus. Dignissimos perferendis corrupti maxime rerum placeat earum.</t>
         </is>
       </c>
     </row>

--- a/SDP/Filexel/FakerKTR.xlsx
+++ b/SDP/Filexel/FakerKTR.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Agribisnis</t>
+          <t>Manufaktur</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -434,18 +434,18 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Voluptas.</t>
+          <t>Quasi.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Gg. Moch. Toha No. 5
-Jayapura, KR 58605</t>
+          <t>Gg. M.H Thamrin No. 00
+Solok, KI 31029</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>06/06/2023</t>
+          <t>04/09/2023</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -455,22 +455,22 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>prasaranaOption-1</t>
+          <t>prasaranaOption-4</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>mitra-4</t>
+          <t>mitra-3</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>#instansiLain-0</t>
+          <t>#petugas-0</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>instrukturOption-0</t>
+          <t>instrukturOption-1</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
@@ -480,12 +480,12 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>A sunt corporis a.</t>
+          <t>Fugit.</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Unde cumque minus.</t>
+          <t>Delectus aperiam.</t>
         </is>
       </c>
       <c r="N1" t="n">
@@ -493,69 +493,69 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>DE 107 FUL</t>
+          <t>A 9091 WUP</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>Z 5403 FMU</t>
+          <t>QB 5719 IWR</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Q 896 KRO</t>
+          <t>D 013 FF</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>LM 5234 FY</t>
+          <t>AO 270 OI</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>P 8322 SRG</t>
+          <t>R 864 RY</t>
         </is>
       </c>
       <c r="T1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V1" t="n">
+        <v>9</v>
+      </c>
+      <c r="W1" t="n">
         <v>8</v>
       </c>
-      <c r="V1" t="n">
-        <v>7</v>
-      </c>
-      <c r="W1" t="n">
-        <v>3</v>
-      </c>
       <c r="X1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
+          <t>Baik</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Sangat Baik</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Cukup</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Cukup</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
           <t>Kurang</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Sangat Baik</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Sangat Baik</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Sangat Baik</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Cukup</t>
-        </is>
-      </c>
       <c r="AD1" t="inlineStr">
         <is>
           <t>05</t>
@@ -563,8 +563,8 @@
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>Nesciunt exercitationem ipsa ab at. Veniam veniam voluptatibus sunt.
-Ipsa occaecati voluptatibus. Dignissimos perferendis corrupti maxime rerum placeat earum.</t>
+          <t>Reprehenderit maiores aut molestias fugit quae. Debitis soluta quod.
+Neque quasi quo accusamus. Et reiciendis aspernatur facilis possimus commodi repellat.</t>
         </is>
       </c>
     </row>
